--- a/src/main/resources/files/test_1/p.xlsx
+++ b/src/main/resources/files/test_1/p.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Софья\planner\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A8EEAA5-599D-4B7C-8EDB-82EC8FF7BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29C2B43-D349-4E90-8AA0-BCB2F0AF3180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Номер</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Подготовить кружки</t>
+  </si>
+  <si>
+    <t>Вскипятить воду</t>
   </si>
   <si>
     <t>Положить заварку</t>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -419,7 +422,7 @@
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -451,12 +454,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
